--- a/email-list.xlsx
+++ b/email-list.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>rolroralra@naver.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,15 +54,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>rolroralra@naver.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rolroralra@naver.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C:\Users\Shinyoung.Kim\PycharmProjects\excel-crawling\attachment-file.xlsx</t>
+    <t>supmoo@naver.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shyoung.kim@samsung.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -409,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -421,7 +417,7 @@
     <col min="4" max="4" width="18.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -431,11 +427,8 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -446,7 +439,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -455,9 +448,6 @@
       </c>
       <c r="C3" t="s">
         <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
